--- a/doc/Core/Total.xlsx
+++ b/doc/Core/Total.xlsx
@@ -4,19 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27690" windowHeight="12525" activeTab="1"/>
+    <workbookView windowWidth="27690" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="参数" sheetId="1" r:id="rId1"/>
     <sheet name="存储部件数据格式" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="TODOLIST" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TODOLIST!$C$1:$C$2</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>内核各参数初版决定</t>
   </si>
@@ -123,6 +126,33 @@
   </si>
   <si>
     <t>是否执行完毕</t>
+  </si>
+  <si>
+    <t>序号</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>是否已完成</t>
+  </si>
+  <si>
+    <t>编写AXI协议SRAM接口，支持AXI3协议；
+不对axprot做要求;
+不对axcache做要求</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>编写AXI协议的空返回模块，用于返回一个为0的读事务数据</t>
+  </si>
+  <si>
+    <t>编写AXI协议的空写入模块，用于处理写事务数据;
+主要是计数aw的控制信号，并且根据协议拉高b通道的信号</t>
   </si>
 </sst>
 </file>
@@ -132,8 +162,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -159,6 +189,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -167,8 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,6 +222,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -197,8 +243,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -206,17 +253,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,21 +268,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,24 +289,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,6 +310,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="36">
     <fill>
@@ -321,13 +351,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -339,19 +465,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,139 +513,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,6 +578,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -559,15 +624,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,34 +646,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -626,139 +656,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -771,9 +801,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1155,145 +1191,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="7">
         <v>4</v>
       </c>
-      <c r="C3" s="5"/>
+      <c r="C3" s="7"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="6">
         <v>2</v>
       </c>
-      <c r="C4" s="4"/>
+      <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="7">
         <v>16</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="7"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="6">
         <v>64</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="7"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="6">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="7">
         <v>1</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="6">
         <v>2</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="6" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="57" customHeight="1" spans="1:3">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="8" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1312,7 +1348,7 @@
   <sheetPr/>
   <dimension ref="B10:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
@@ -1326,44 +1362,44 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:10">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1380,14 +1416,248 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
+  <cols>
+    <col min="2" max="2" width="44.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="81.6666666666667" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="66" spans="1:4">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" ht="32" customHeight="1" spans="1:4">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" ht="33" spans="1:4">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576">
+      <formula1>"IP"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
+      <formula1>"IP,DEBUG,interface,spec"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/Core/Total.xlsx
+++ b/doc/Core/Total.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27690" windowHeight="12525" activeTab="2"/>
+    <workbookView windowWidth="27690" windowHeight="12525" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="参数" sheetId="1" r:id="rId1"/>
     <sheet name="存储部件数据格式" sheetId="2" r:id="rId2"/>
     <sheet name="TODOLIST" sheetId="3" r:id="rId3"/>
+    <sheet name="Inst exec_type_code" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TODOLIST!$C$1:$C$2</definedName>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="140">
   <si>
     <t>内核各参数初版决定</t>
   </si>
@@ -148,11 +149,303 @@
     <t>IP</t>
   </si>
   <si>
-    <t>编写AXI协议的空返回模块，用于返回一个为0的读事务数据</t>
+    <t xml:space="preserve">1、目前只写了AR，R通道，AW，W，B通道还未写，未验证
+</t>
+  </si>
+  <si>
+    <t>编写AXI协议的空返回模块，用于返回一个为0的读事务数据，rresp返回2'b11</t>
   </si>
   <si>
     <t>编写AXI协议的空写入模块，用于处理写事务数据;
-主要是计数aw的控制信号，并且根据协议拉高b通道的信号</t>
+主要是计数aw的控制信号，并且根据协议拉高b通道的信号，bresp返回2'b11</t>
+  </si>
+  <si>
+    <t>指令执行名称</t>
+  </si>
+  <si>
+    <t>指令执行代码part1</t>
+  </si>
+  <si>
+    <t>加减法，比较</t>
+  </si>
+  <si>
+    <t>指令操作码解码</t>
+  </si>
+  <si>
+    <t>跳转</t>
+  </si>
+  <si>
+    <t>加载</t>
+  </si>
+  <si>
+    <t>存储</t>
+  </si>
+  <si>
+    <t>移位</t>
+  </si>
+  <si>
+    <t>逻辑操作</t>
+  </si>
+  <si>
+    <t>乘除求余</t>
+  </si>
+  <si>
+    <t>csr操作</t>
+  </si>
+  <si>
+    <t>指令执行细分</t>
+  </si>
+  <si>
+    <t>指令执行代码part2</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>pc</t>
+  </si>
+  <si>
+    <t>减</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>SLT</t>
+  </si>
+  <si>
+    <t>加</t>
+  </si>
+  <si>
+    <t>立即数</t>
+  </si>
+  <si>
+    <t>lui</t>
+  </si>
+  <si>
+    <t>auipc</t>
+  </si>
+  <si>
+    <t>add</t>
+  </si>
+  <si>
+    <t>addi</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>slt</t>
+  </si>
+  <si>
+    <t>sltu</t>
+  </si>
+  <si>
+    <t>slti</t>
+  </si>
+  <si>
+    <t>sltiu</t>
+  </si>
+  <si>
+    <t>addiw</t>
+  </si>
+  <si>
+    <t>RV64</t>
+  </si>
+  <si>
+    <t>addw</t>
+  </si>
+  <si>
+    <t>subw</t>
+  </si>
+  <si>
+    <t>Br</t>
+  </si>
+  <si>
+    <t>JL</t>
+  </si>
+  <si>
+    <t>具体执行</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>jalr</t>
+  </si>
+  <si>
+    <t>beq</t>
+  </si>
+  <si>
+    <t>bne</t>
+  </si>
+  <si>
+    <t>blt</t>
+  </si>
+  <si>
+    <t>bge</t>
+  </si>
+  <si>
+    <t>bltu</t>
+  </si>
+  <si>
+    <t>bgeu</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>lb</t>
+  </si>
+  <si>
+    <t>lbu</t>
+  </si>
+  <si>
+    <t>lh</t>
+  </si>
+  <si>
+    <t>lhu</t>
+  </si>
+  <si>
+    <t>lw</t>
+  </si>
+  <si>
+    <t>lwu</t>
+  </si>
+  <si>
+    <t>ld</t>
+  </si>
+  <si>
+    <t>sb</t>
+  </si>
+  <si>
+    <t>sh</t>
+  </si>
+  <si>
+    <t>sw</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>算数移位</t>
+  </si>
+  <si>
+    <t>右移</t>
+  </si>
+  <si>
+    <t>左移</t>
+  </si>
+  <si>
+    <t>sll</t>
+  </si>
+  <si>
+    <t>srl</t>
+  </si>
+  <si>
+    <t>sra</t>
+  </si>
+  <si>
+    <t>slli</t>
+  </si>
+  <si>
+    <t>srli</t>
+  </si>
+  <si>
+    <t>srai</t>
+  </si>
+  <si>
+    <t>sllw</t>
+  </si>
+  <si>
+    <t>srlw</t>
+  </si>
+  <si>
+    <t>sraw</t>
+  </si>
+  <si>
+    <t>slliw</t>
+  </si>
+  <si>
+    <t>srliw</t>
+  </si>
+  <si>
+    <t>sraiw</t>
+  </si>
+  <si>
+    <t>具体操作</t>
+  </si>
+  <si>
+    <t>xor</t>
+  </si>
+  <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>xori</t>
+  </si>
+  <si>
+    <t>ori</t>
+  </si>
+  <si>
+    <t>andi</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>REM</t>
+  </si>
+  <si>
+    <t>D I V</t>
+  </si>
+  <si>
+    <t>MUL</t>
+  </si>
+  <si>
+    <t>mul</t>
+  </si>
+  <si>
+    <t>mulh</t>
+  </si>
+  <si>
+    <t>mulhsu</t>
+  </si>
+  <si>
+    <t>mulhu</t>
+  </si>
+  <si>
+    <t>div</t>
+  </si>
+  <si>
+    <t>divu</t>
+  </si>
+  <si>
+    <t>remu</t>
+  </si>
+  <si>
+    <t>mulw</t>
+  </si>
+  <si>
+    <t>divw</t>
+  </si>
+  <si>
+    <t>divuw</t>
+  </si>
+  <si>
+    <t>remw</t>
+  </si>
+  <si>
+    <t>remuw</t>
   </si>
 </sst>
 </file>
@@ -160,10 +453,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -182,18 +475,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,19 +491,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -228,10 +512,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,7 +538,28 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -267,6 +573,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -274,16 +596,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,30 +610,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +621,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -345,13 +650,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -363,37 +680,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -411,13 +716,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,37 +728,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -471,19 +758,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,13 +794,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -517,20 +834,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -554,11 +859,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -581,34 +936,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -628,26 +957,28 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -656,142 +987,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -801,32 +1132,77 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1179,8 +1555,8 @@
   <sheetPr/>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="2"/>
@@ -1191,145 +1567,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="22">
         <v>4</v>
       </c>
-      <c r="C3" s="7"/>
+      <c r="C3" s="22"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="21">
         <v>2</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="21"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="7">
+      <c r="B5" s="22">
         <v>16</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="22"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="21">
         <v>64</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-      <c r="C7" s="7"/>
+      <c r="B7" s="22">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="21">
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="21" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="22" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="21"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="7">
-        <v>1</v>
-      </c>
-      <c r="C11" s="7" t="s">
+      <c r="B11" s="22">
+        <v>1</v>
+      </c>
+      <c r="C11" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="21">
         <v>2</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="21" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="57" customHeight="1" spans="1:3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="23" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1362,44 +1738,44 @@
   </cols>
   <sheetData>
     <row r="10" spans="2:10">
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="4" t="s">
+      <c r="H11" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="4" t="s">
+      <c r="I11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="J11" s="17" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1418,8 +1794,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1429,225 +1805,228 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>38</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="66" spans="1:4">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="2" ht="49.5" spans="1:5">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="20" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" ht="32" customHeight="1" spans="1:4">
-      <c r="A3" s="1">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" ht="33" spans="1:4">
-      <c r="A4" s="1">
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" ht="49.5" spans="1:4">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -1662,4 +2041,3326 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Y113"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4.22222222222222" customWidth="1"/>
+    <col min="2" max="2" width="4.55555555555556" customWidth="1"/>
+    <col min="3" max="3" width="3.44444444444444" customWidth="1"/>
+    <col min="4" max="4" width="2.88888888888889" customWidth="1"/>
+    <col min="5" max="5" width="4.11111111111111" customWidth="1"/>
+    <col min="6" max="6" width="9.88888888888889" customWidth="1"/>
+    <col min="7" max="7" width="3.88888888888889" customWidth="1"/>
+    <col min="9" max="15" width="2.22222222222222" customWidth="1"/>
+    <col min="16" max="16" width="2.33333333333333" customWidth="1"/>
+    <col min="17" max="17" width="2.22222222222222" customWidth="1"/>
+    <col min="18" max="18" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="15"/>
+      <c r="X2" s="15"/>
+      <c r="Y2" s="15"/>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0</v>
+      </c>
+      <c r="T3" s="15"/>
+      <c r="U3" s="15"/>
+      <c r="V3" s="15"/>
+      <c r="W3" s="15"/>
+      <c r="X3" s="15"/>
+      <c r="Y3" s="15"/>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
+      </c>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>1</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>0</v>
+      </c>
+      <c r="T4" s="15"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="6">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>1</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0</v>
+      </c>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15"/>
+      <c r="V5" s="15"/>
+      <c r="W5" s="15"/>
+      <c r="X5" s="15"/>
+      <c r="Y5" s="15"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="6">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
+      </c>
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <v>1</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
+      </c>
+      <c r="L7" s="7">
+        <v>1</v>
+      </c>
+      <c r="M7" s="6">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="6">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="7">
+        <v>1</v>
+      </c>
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="6">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="7">
+        <v>1</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="4"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" ht="14" customHeight="1" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:19">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="S13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="39" customHeight="1" spans="1:19">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="S14" s="1"/>
+    </row>
+    <row r="15" spans="1:19">
+      <c r="A15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O15" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q15" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="S15" s="12"/>
+    </row>
+    <row r="16" spans="1:19">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="13"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="13"/>
+      <c r="S16" s="16"/>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="8">
+        <v>0</v>
+      </c>
+      <c r="J17" s="8">
+        <v>0</v>
+      </c>
+      <c r="K17" s="8">
+        <v>0</v>
+      </c>
+      <c r="L17" s="8">
+        <v>0</v>
+      </c>
+      <c r="M17" s="8">
+        <v>0</v>
+      </c>
+      <c r="N17" s="8">
+        <v>0</v>
+      </c>
+      <c r="O17" s="8">
+        <v>0</v>
+      </c>
+      <c r="P17" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="7">
+        <v>1</v>
+      </c>
+      <c r="S17" s="17"/>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="8">
+        <v>0</v>
+      </c>
+      <c r="J18" s="9">
+        <v>1</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+      <c r="L18" s="8">
+        <v>0</v>
+      </c>
+      <c r="M18" s="8">
+        <v>0</v>
+      </c>
+      <c r="N18" s="8">
+        <v>0</v>
+      </c>
+      <c r="O18" s="8">
+        <v>0</v>
+      </c>
+      <c r="P18" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="S18" s="17"/>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="8">
+        <v>0</v>
+      </c>
+      <c r="J19" s="8">
+        <v>0</v>
+      </c>
+      <c r="K19" s="8">
+        <v>0</v>
+      </c>
+      <c r="L19" s="8">
+        <v>0</v>
+      </c>
+      <c r="M19" s="8">
+        <v>0</v>
+      </c>
+      <c r="N19" s="8">
+        <v>0</v>
+      </c>
+      <c r="O19" s="8">
+        <v>0</v>
+      </c>
+      <c r="P19" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>0</v>
+      </c>
+      <c r="S19" s="17"/>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="8">
+        <v>0</v>
+      </c>
+      <c r="J20" s="8">
+        <v>0</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+      <c r="L20" s="8">
+        <v>0</v>
+      </c>
+      <c r="M20" s="8">
+        <v>0</v>
+      </c>
+      <c r="N20" s="8">
+        <v>0</v>
+      </c>
+      <c r="O20" s="8">
+        <v>0</v>
+      </c>
+      <c r="P20" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7">
+        <v>1</v>
+      </c>
+      <c r="S20" s="17"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="8">
+        <v>0</v>
+      </c>
+      <c r="J21" s="8">
+        <v>0</v>
+      </c>
+      <c r="K21" s="9">
+        <v>1</v>
+      </c>
+      <c r="L21" s="8">
+        <v>0</v>
+      </c>
+      <c r="M21" s="8">
+        <v>0</v>
+      </c>
+      <c r="N21" s="8">
+        <v>0</v>
+      </c>
+      <c r="O21" s="8">
+        <v>0</v>
+      </c>
+      <c r="P21" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>0</v>
+      </c>
+      <c r="S21" s="17"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="8">
+        <v>0</v>
+      </c>
+      <c r="J22" s="8">
+        <v>0</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+      <c r="L22" s="8">
+        <v>0</v>
+      </c>
+      <c r="M22" s="8">
+        <v>0</v>
+      </c>
+      <c r="N22" s="8">
+        <v>0</v>
+      </c>
+      <c r="O22" s="9">
+        <v>1</v>
+      </c>
+      <c r="P22" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="6">
+        <v>0</v>
+      </c>
+      <c r="S22" s="17"/>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="9">
+        <v>1</v>
+      </c>
+      <c r="J23" s="8">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8">
+        <v>0</v>
+      </c>
+      <c r="L23" s="8">
+        <v>0</v>
+      </c>
+      <c r="M23" s="8">
+        <v>0</v>
+      </c>
+      <c r="N23" s="8">
+        <v>0</v>
+      </c>
+      <c r="O23" s="9">
+        <v>1</v>
+      </c>
+      <c r="P23" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="6">
+        <v>0</v>
+      </c>
+      <c r="S23" s="17"/>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="8">
+        <v>0</v>
+      </c>
+      <c r="J24" s="8">
+        <v>0</v>
+      </c>
+      <c r="K24" s="8">
+        <v>0</v>
+      </c>
+      <c r="L24" s="8">
+        <v>0</v>
+      </c>
+      <c r="M24" s="8">
+        <v>0</v>
+      </c>
+      <c r="N24" s="8">
+        <v>0</v>
+      </c>
+      <c r="O24" s="9">
+        <v>1</v>
+      </c>
+      <c r="P24" s="8">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
+      <c r="S24" s="17"/>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="I25" s="10">
+        <v>1</v>
+      </c>
+      <c r="J25" s="11">
+        <v>0</v>
+      </c>
+      <c r="K25" s="11">
+        <v>0</v>
+      </c>
+      <c r="L25" s="11">
+        <v>0</v>
+      </c>
+      <c r="M25" s="11">
+        <v>0</v>
+      </c>
+      <c r="N25" s="11">
+        <v>0</v>
+      </c>
+      <c r="O25" s="10">
+        <v>1</v>
+      </c>
+      <c r="P25" s="11">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>1</v>
+      </c>
+      <c r="S25" s="17"/>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="I26" s="6">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
+      </c>
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="6">
+        <v>0</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q26" s="7">
+        <v>1</v>
+      </c>
+      <c r="S26" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19">
+      <c r="A27" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="I27" s="6">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
+      </c>
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="6">
+        <v>0</v>
+      </c>
+      <c r="N27" s="7">
+        <v>1</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q27" s="6">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3"/>
+    </row>
+    <row r="28" spans="1:19">
+      <c r="A28" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="7">
+        <v>1</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="7">
+        <v>1</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3"/>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="2"/>
+      <c r="I31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17">
+      <c r="A32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="2"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17">
+      <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="2"/>
+      <c r="I33" s="6">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="7">
+        <v>1</v>
+      </c>
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="6">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="2"/>
+      <c r="I34" s="6">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="7">
+        <v>1</v>
+      </c>
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="6">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17">
+      <c r="A35" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="6">
+        <v>0</v>
+      </c>
+      <c r="J35" s="7">
+        <v>1</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
+      </c>
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="6">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17">
+      <c r="A36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="6">
+        <v>0</v>
+      </c>
+      <c r="J36" s="7">
+        <v>1</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="6">
+        <v>0</v>
+      </c>
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17">
+      <c r="A37" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="2"/>
+      <c r="I37" s="6">
+        <v>0</v>
+      </c>
+      <c r="J37" s="7">
+        <v>1</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
+      </c>
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="6">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="6">
+        <v>0</v>
+      </c>
+      <c r="J38" s="7">
+        <v>1</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
+      </c>
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="6">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="7">
+        <v>1</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="2"/>
+      <c r="I39" s="7">
+        <v>1</v>
+      </c>
+      <c r="J39" s="7">
+        <v>1</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="6">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="2"/>
+      <c r="I40" s="7">
+        <v>1</v>
+      </c>
+      <c r="J40" s="7">
+        <v>1</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="6">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="7">
+        <v>1</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="9:17">
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="9:17">
+      <c r="I43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17">
+      <c r="A44" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="I44" s="12"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="12"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" spans="1:17">
+      <c r="A45" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="I45" s="6">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="6">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17">
+      <c r="A46" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="I46" s="7">
+        <v>1</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="6">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17">
+      <c r="A47" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="I47" s="6">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17">
+      <c r="A48" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="I48" s="7">
+        <v>1</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="6">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="I49" s="6">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="6">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="7">
+        <v>1</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19">
+      <c r="A50" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="I50" s="7">
+        <v>1</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="7">
+        <v>1</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19">
+      <c r="A51" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="I51" s="6">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="6">
+        <v>0</v>
+      </c>
+      <c r="N51" s="7">
+        <v>1</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="6">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3"/>
+    </row>
+    <row r="52" spans="9:17">
+      <c r="I52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+    </row>
+    <row r="53" spans="9:17">
+      <c r="I53" s="4"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="4"/>
+      <c r="Q53" s="4"/>
+    </row>
+    <row r="54" spans="9:17">
+      <c r="I54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="4"/>
+      <c r="Q54" s="4"/>
+    </row>
+    <row r="55" spans="9:17">
+      <c r="I55" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="N55" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="O55" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q55" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17">
+      <c r="A56" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" s="1"/>
+      <c r="C56" s="1"/>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
+      <c r="F56" s="1"/>
+      <c r="I56" s="12"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="12"/>
+      <c r="P56" s="12"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="1:17">
+      <c r="A57" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B57" s="1"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+      <c r="I57" s="6">
+        <v>0</v>
+      </c>
+      <c r="J57" s="6">
+        <v>0</v>
+      </c>
+      <c r="K57" s="6">
+        <v>0</v>
+      </c>
+      <c r="L57" s="6">
+        <v>0</v>
+      </c>
+      <c r="M57" s="6">
+        <v>0</v>
+      </c>
+      <c r="N57" s="6">
+        <v>0</v>
+      </c>
+      <c r="O57" s="6">
+        <v>0</v>
+      </c>
+      <c r="P57" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17">
+      <c r="A58" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B58" s="1"/>
+      <c r="C58" s="1"/>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
+      <c r="F58" s="1"/>
+      <c r="I58" s="6">
+        <v>0</v>
+      </c>
+      <c r="J58" s="6">
+        <v>0</v>
+      </c>
+      <c r="K58" s="6">
+        <v>0</v>
+      </c>
+      <c r="L58" s="6">
+        <v>0</v>
+      </c>
+      <c r="M58" s="6">
+        <v>0</v>
+      </c>
+      <c r="N58" s="6">
+        <v>0</v>
+      </c>
+      <c r="O58" s="6">
+        <v>0</v>
+      </c>
+      <c r="P58" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17">
+      <c r="A59" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B59" s="1"/>
+      <c r="C59" s="1"/>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
+      <c r="F59" s="1"/>
+      <c r="I59" s="6">
+        <v>0</v>
+      </c>
+      <c r="J59" s="6">
+        <v>0</v>
+      </c>
+      <c r="K59" s="6">
+        <v>0</v>
+      </c>
+      <c r="L59" s="6">
+        <v>0</v>
+      </c>
+      <c r="M59" s="6">
+        <v>0</v>
+      </c>
+      <c r="N59" s="6">
+        <v>0</v>
+      </c>
+      <c r="O59" s="7">
+        <v>1</v>
+      </c>
+      <c r="P59" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19">
+      <c r="A60" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="3"/>
+      <c r="I60" s="6">
+        <v>0</v>
+      </c>
+      <c r="J60" s="6">
+        <v>0</v>
+      </c>
+      <c r="K60" s="6">
+        <v>0</v>
+      </c>
+      <c r="L60" s="6">
+        <v>0</v>
+      </c>
+      <c r="M60" s="6">
+        <v>0</v>
+      </c>
+      <c r="N60" s="7">
+        <v>1</v>
+      </c>
+      <c r="O60" s="6">
+        <v>0</v>
+      </c>
+      <c r="P60" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="6">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" ht="35" customHeight="1"/>
+    <row r="62" ht="34" customHeight="1" spans="9:17">
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="O62" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="P62" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q62" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" ht="36" customHeight="1" spans="1:17">
+      <c r="A63" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="14"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="14"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" spans="1:17">
+      <c r="A64" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B64" s="1"/>
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+      <c r="F64" s="1"/>
+      <c r="I64" s="6">
+        <v>0</v>
+      </c>
+      <c r="J64" s="6">
+        <v>0</v>
+      </c>
+      <c r="K64" s="6">
+        <v>0</v>
+      </c>
+      <c r="L64" s="6">
+        <v>0</v>
+      </c>
+      <c r="M64" s="6">
+        <v>0</v>
+      </c>
+      <c r="N64" s="6">
+        <v>0</v>
+      </c>
+      <c r="O64" s="6">
+        <v>0</v>
+      </c>
+      <c r="P64" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17">
+      <c r="A65" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B65" s="1"/>
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+      <c r="F65" s="1"/>
+      <c r="I65" s="6">
+        <v>0</v>
+      </c>
+      <c r="J65" s="6">
+        <v>0</v>
+      </c>
+      <c r="K65" s="6">
+        <v>0</v>
+      </c>
+      <c r="L65" s="6">
+        <v>0</v>
+      </c>
+      <c r="M65" s="6">
+        <v>0</v>
+      </c>
+      <c r="N65" s="6">
+        <v>0</v>
+      </c>
+      <c r="O65" s="7">
+        <v>1</v>
+      </c>
+      <c r="P65" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17">
+      <c r="A66" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="I66" s="6">
+        <v>0</v>
+      </c>
+      <c r="J66" s="6">
+        <v>0</v>
+      </c>
+      <c r="K66" s="6">
+        <v>0</v>
+      </c>
+      <c r="L66" s="6">
+        <v>0</v>
+      </c>
+      <c r="M66" s="6">
+        <v>0</v>
+      </c>
+      <c r="N66" s="7">
+        <v>1</v>
+      </c>
+      <c r="O66" s="7">
+        <v>1</v>
+      </c>
+      <c r="P66" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17">
+      <c r="A67" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="I67" s="6">
+        <v>0</v>
+      </c>
+      <c r="J67" s="6">
+        <v>0</v>
+      </c>
+      <c r="K67" s="6">
+        <v>0</v>
+      </c>
+      <c r="L67" s="6">
+        <v>0</v>
+      </c>
+      <c r="M67" s="6">
+        <v>0</v>
+      </c>
+      <c r="N67" s="6">
+        <v>0</v>
+      </c>
+      <c r="O67" s="6">
+        <v>0</v>
+      </c>
+      <c r="P67" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17">
+      <c r="A68" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="I68" s="6">
+        <v>0</v>
+      </c>
+      <c r="J68" s="6">
+        <v>0</v>
+      </c>
+      <c r="K68" s="6">
+        <v>0</v>
+      </c>
+      <c r="L68" s="6">
+        <v>0</v>
+      </c>
+      <c r="M68" s="6">
+        <v>0</v>
+      </c>
+      <c r="N68" s="6">
+        <v>0</v>
+      </c>
+      <c r="O68" s="7">
+        <v>1</v>
+      </c>
+      <c r="P68" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17">
+      <c r="A69" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="I69" s="6">
+        <v>0</v>
+      </c>
+      <c r="J69" s="6">
+        <v>0</v>
+      </c>
+      <c r="K69" s="6">
+        <v>0</v>
+      </c>
+      <c r="L69" s="6">
+        <v>0</v>
+      </c>
+      <c r="M69" s="6">
+        <v>0</v>
+      </c>
+      <c r="N69" s="7">
+        <v>1</v>
+      </c>
+      <c r="O69" s="7">
+        <v>1</v>
+      </c>
+      <c r="P69" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19">
+      <c r="A70" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="3"/>
+      <c r="I70" s="6">
+        <v>0</v>
+      </c>
+      <c r="J70" s="6">
+        <v>0</v>
+      </c>
+      <c r="K70" s="6">
+        <v>0</v>
+      </c>
+      <c r="L70" s="6">
+        <v>0</v>
+      </c>
+      <c r="M70" s="7">
+        <v>1</v>
+      </c>
+      <c r="N70" s="6">
+        <v>0</v>
+      </c>
+      <c r="O70" s="6">
+        <v>0</v>
+      </c>
+      <c r="P70" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="6">
+        <v>0</v>
+      </c>
+      <c r="S70" s="18" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19">
+      <c r="A71" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="3"/>
+      <c r="I71" s="6">
+        <v>0</v>
+      </c>
+      <c r="J71" s="6">
+        <v>0</v>
+      </c>
+      <c r="K71" s="6">
+        <v>0</v>
+      </c>
+      <c r="L71" s="6">
+        <v>0</v>
+      </c>
+      <c r="M71" s="7">
+        <v>1</v>
+      </c>
+      <c r="N71" s="6">
+        <v>0</v>
+      </c>
+      <c r="O71" s="7">
+        <v>1</v>
+      </c>
+      <c r="P71" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="6">
+        <v>0</v>
+      </c>
+      <c r="S71" s="18"/>
+    </row>
+    <row r="72" spans="1:19">
+      <c r="A72" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="3"/>
+      <c r="I72" s="6">
+        <v>0</v>
+      </c>
+      <c r="J72" s="6">
+        <v>0</v>
+      </c>
+      <c r="K72" s="6">
+        <v>0</v>
+      </c>
+      <c r="L72" s="6">
+        <v>0</v>
+      </c>
+      <c r="M72" s="7">
+        <v>1</v>
+      </c>
+      <c r="N72" s="7">
+        <v>1</v>
+      </c>
+      <c r="O72" s="7">
+        <v>1</v>
+      </c>
+      <c r="P72" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q72" s="6">
+        <v>0</v>
+      </c>
+      <c r="S72" s="18"/>
+    </row>
+    <row r="73" spans="1:19">
+      <c r="A73" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="3"/>
+      <c r="I73" s="6">
+        <v>0</v>
+      </c>
+      <c r="J73" s="6">
+        <v>0</v>
+      </c>
+      <c r="K73" s="6">
+        <v>0</v>
+      </c>
+      <c r="L73" s="6">
+        <v>0</v>
+      </c>
+      <c r="M73" s="7">
+        <v>1</v>
+      </c>
+      <c r="N73" s="6">
+        <v>0</v>
+      </c>
+      <c r="O73" s="6">
+        <v>0</v>
+      </c>
+      <c r="P73" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q73" s="7">
+        <v>1</v>
+      </c>
+      <c r="S73" s="18"/>
+    </row>
+    <row r="74" spans="1:19">
+      <c r="A74" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="3"/>
+      <c r="I74" s="6">
+        <v>0</v>
+      </c>
+      <c r="J74" s="6">
+        <v>0</v>
+      </c>
+      <c r="K74" s="6">
+        <v>0</v>
+      </c>
+      <c r="L74" s="6">
+        <v>0</v>
+      </c>
+      <c r="M74" s="7">
+        <v>1</v>
+      </c>
+      <c r="N74" s="6">
+        <v>0</v>
+      </c>
+      <c r="O74" s="7">
+        <v>1</v>
+      </c>
+      <c r="P74" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="7">
+        <v>1</v>
+      </c>
+      <c r="S74" s="18"/>
+    </row>
+    <row r="75" spans="1:19">
+      <c r="A75" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="3"/>
+      <c r="I75" s="6">
+        <v>0</v>
+      </c>
+      <c r="J75" s="6">
+        <v>0</v>
+      </c>
+      <c r="K75" s="6">
+        <v>0</v>
+      </c>
+      <c r="L75" s="6">
+        <v>0</v>
+      </c>
+      <c r="M75" s="7">
+        <v>1</v>
+      </c>
+      <c r="N75" s="7">
+        <v>1</v>
+      </c>
+      <c r="O75" s="7">
+        <v>1</v>
+      </c>
+      <c r="P75" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="7">
+        <v>1</v>
+      </c>
+      <c r="S75" s="18"/>
+    </row>
+    <row r="79" spans="14:17">
+      <c r="N79" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="O79" s="13"/>
+      <c r="P79" s="13"/>
+      <c r="Q79" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17">
+      <c r="A80" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B80" s="1"/>
+      <c r="C80" s="1"/>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="1"/>
+      <c r="N80" s="13"/>
+      <c r="O80" s="13"/>
+      <c r="P80" s="13"/>
+      <c r="Q80" s="13"/>
+    </row>
+    <row r="81" spans="1:17">
+      <c r="A81" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="1"/>
+      <c r="C81" s="1"/>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="1"/>
+      <c r="I81" s="6">
+        <v>0</v>
+      </c>
+      <c r="J81" s="6">
+        <v>0</v>
+      </c>
+      <c r="K81" s="6">
+        <v>0</v>
+      </c>
+      <c r="L81" s="6">
+        <v>0</v>
+      </c>
+      <c r="M81" s="6">
+        <v>0</v>
+      </c>
+      <c r="N81" s="6">
+        <v>0</v>
+      </c>
+      <c r="O81" s="6">
+        <v>0</v>
+      </c>
+      <c r="P81" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17">
+      <c r="A82" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B82" s="1"/>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="1"/>
+      <c r="I82" s="6">
+        <v>0</v>
+      </c>
+      <c r="J82" s="6">
+        <v>0</v>
+      </c>
+      <c r="K82" s="6">
+        <v>0</v>
+      </c>
+      <c r="L82" s="6">
+        <v>0</v>
+      </c>
+      <c r="M82" s="6">
+        <v>0</v>
+      </c>
+      <c r="N82" s="6">
+        <v>0</v>
+      </c>
+      <c r="O82" s="7">
+        <v>1</v>
+      </c>
+      <c r="P82" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q82" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17">
+      <c r="A83" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B83" s="1"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="1"/>
+      <c r="I83" s="6">
+        <v>0</v>
+      </c>
+      <c r="J83" s="6">
+        <v>0</v>
+      </c>
+      <c r="K83" s="6">
+        <v>0</v>
+      </c>
+      <c r="L83" s="6">
+        <v>0</v>
+      </c>
+      <c r="M83" s="6">
+        <v>0</v>
+      </c>
+      <c r="N83" s="6">
+        <v>0</v>
+      </c>
+      <c r="O83" s="7">
+        <v>1</v>
+      </c>
+      <c r="P83" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17">
+      <c r="A84" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="1"/>
+      <c r="I84" s="6">
+        <v>0</v>
+      </c>
+      <c r="J84" s="6">
+        <v>0</v>
+      </c>
+      <c r="K84" s="6">
+        <v>0</v>
+      </c>
+      <c r="L84" s="6">
+        <v>0</v>
+      </c>
+      <c r="M84" s="6">
+        <v>0</v>
+      </c>
+      <c r="N84" s="6">
+        <v>0</v>
+      </c>
+      <c r="O84" s="6">
+        <v>0</v>
+      </c>
+      <c r="P84" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q84" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17">
+      <c r="A85" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="1"/>
+      <c r="C85" s="1"/>
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="1"/>
+      <c r="I85" s="6">
+        <v>0</v>
+      </c>
+      <c r="J85" s="6">
+        <v>0</v>
+      </c>
+      <c r="K85" s="6">
+        <v>0</v>
+      </c>
+      <c r="L85" s="6">
+        <v>0</v>
+      </c>
+      <c r="M85" s="6">
+        <v>0</v>
+      </c>
+      <c r="N85" s="6">
+        <v>0</v>
+      </c>
+      <c r="O85" s="7">
+        <v>1</v>
+      </c>
+      <c r="P85" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17">
+      <c r="A86" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B86" s="1"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="1"/>
+      <c r="I86" s="6">
+        <v>0</v>
+      </c>
+      <c r="J86" s="6">
+        <v>0</v>
+      </c>
+      <c r="K86" s="6">
+        <v>0</v>
+      </c>
+      <c r="L86" s="6">
+        <v>0</v>
+      </c>
+      <c r="M86" s="6">
+        <v>0</v>
+      </c>
+      <c r="N86" s="6">
+        <v>0</v>
+      </c>
+      <c r="O86" s="7">
+        <v>1</v>
+      </c>
+      <c r="P86" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q86" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" ht="14" customHeight="1"/>
+    <row r="90" spans="9:17">
+      <c r="I90" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="K90" s="1"/>
+      <c r="L90" s="13"/>
+      <c r="M90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="N90" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="O90" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="P90" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q90" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" ht="43" customHeight="1" spans="1:17">
+      <c r="A91" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B91" s="1"/>
+      <c r="C91" s="1"/>
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
+      <c r="K91" s="1"/>
+      <c r="L91" s="13"/>
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="13"/>
+      <c r="P91" s="13"/>
+      <c r="Q91" s="13"/>
+    </row>
+    <row r="92" spans="1:17">
+      <c r="A92" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B92" s="1"/>
+      <c r="C92" s="1"/>
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="1"/>
+      <c r="I92" s="6">
+        <v>0</v>
+      </c>
+      <c r="J92" s="6">
+        <v>0</v>
+      </c>
+      <c r="K92" s="6">
+        <v>0</v>
+      </c>
+      <c r="L92" s="6">
+        <v>0</v>
+      </c>
+      <c r="M92" s="6">
+        <v>0</v>
+      </c>
+      <c r="N92" s="6">
+        <v>0</v>
+      </c>
+      <c r="O92" s="6">
+        <v>0</v>
+      </c>
+      <c r="P92" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17">
+      <c r="A93" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B93" s="1"/>
+      <c r="C93" s="1"/>
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="I93" s="6">
+        <v>0</v>
+      </c>
+      <c r="J93" s="6">
+        <v>0</v>
+      </c>
+      <c r="K93" s="6">
+        <v>0</v>
+      </c>
+      <c r="L93" s="6">
+        <v>0</v>
+      </c>
+      <c r="M93" s="6">
+        <v>0</v>
+      </c>
+      <c r="N93" s="7">
+        <v>1</v>
+      </c>
+      <c r="O93" s="6">
+        <v>0</v>
+      </c>
+      <c r="P93" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17">
+      <c r="A94" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B94" s="1"/>
+      <c r="C94" s="1"/>
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="I94" s="7">
+        <v>1</v>
+      </c>
+      <c r="J94" s="7">
+        <v>1</v>
+      </c>
+      <c r="K94" s="6">
+        <v>0</v>
+      </c>
+      <c r="L94" s="6">
+        <v>0</v>
+      </c>
+      <c r="M94" s="6">
+        <v>0</v>
+      </c>
+      <c r="N94" s="7">
+        <v>1</v>
+      </c>
+      <c r="O94" s="6">
+        <v>0</v>
+      </c>
+      <c r="P94" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17">
+      <c r="A95" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B95" s="1"/>
+      <c r="C95" s="1"/>
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="1"/>
+      <c r="I95" s="7">
+        <v>1</v>
+      </c>
+      <c r="J95" s="6">
+        <v>0</v>
+      </c>
+      <c r="K95" s="6">
+        <v>0</v>
+      </c>
+      <c r="L95" s="6">
+        <v>0</v>
+      </c>
+      <c r="M95" s="6">
+        <v>0</v>
+      </c>
+      <c r="N95" s="7">
+        <v>1</v>
+      </c>
+      <c r="O95" s="6">
+        <v>0</v>
+      </c>
+      <c r="P95" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q95" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17">
+      <c r="A96" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B96" s="1"/>
+      <c r="C96" s="1"/>
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="1"/>
+      <c r="I96" s="6">
+        <v>0</v>
+      </c>
+      <c r="J96" s="6">
+        <v>0</v>
+      </c>
+      <c r="K96" s="6">
+        <v>0</v>
+      </c>
+      <c r="L96" s="6">
+        <v>0</v>
+      </c>
+      <c r="M96" s="6">
+        <v>0</v>
+      </c>
+      <c r="N96" s="6">
+        <v>0</v>
+      </c>
+      <c r="O96" s="6">
+        <v>0</v>
+      </c>
+      <c r="P96" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q96" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17">
+      <c r="A97" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B97" s="1"/>
+      <c r="C97" s="1"/>
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="1"/>
+      <c r="I97" s="7">
+        <v>1</v>
+      </c>
+      <c r="J97" s="6">
+        <v>0</v>
+      </c>
+      <c r="K97" s="6">
+        <v>0</v>
+      </c>
+      <c r="L97" s="6">
+        <v>0</v>
+      </c>
+      <c r="M97" s="6">
+        <v>0</v>
+      </c>
+      <c r="N97" s="6">
+        <v>0</v>
+      </c>
+      <c r="O97" s="6">
+        <v>0</v>
+      </c>
+      <c r="P97" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q97" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17">
+      <c r="A98" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B98" s="1"/>
+      <c r="C98" s="1"/>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="1"/>
+      <c r="I98" s="7">
+        <v>1</v>
+      </c>
+      <c r="J98" s="6">
+        <v>0</v>
+      </c>
+      <c r="K98" s="6">
+        <v>0</v>
+      </c>
+      <c r="L98" s="6">
+        <v>0</v>
+      </c>
+      <c r="M98" s="6">
+        <v>0</v>
+      </c>
+      <c r="N98" s="6">
+        <v>0</v>
+      </c>
+      <c r="O98" s="7">
+        <v>1</v>
+      </c>
+      <c r="P98" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19">
+      <c r="A99" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+      <c r="E99" s="3"/>
+      <c r="F99" s="3"/>
+      <c r="I99" s="6">
+        <v>0</v>
+      </c>
+      <c r="J99" s="6">
+        <v>0</v>
+      </c>
+      <c r="K99" s="6">
+        <v>0</v>
+      </c>
+      <c r="L99" s="6">
+        <v>0</v>
+      </c>
+      <c r="M99" s="7">
+        <v>1</v>
+      </c>
+      <c r="N99" s="6">
+        <v>0</v>
+      </c>
+      <c r="O99" s="6">
+        <v>0</v>
+      </c>
+      <c r="P99" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="7">
+        <v>1</v>
+      </c>
+      <c r="S99" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19">
+      <c r="A100" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+      <c r="E100" s="3"/>
+      <c r="F100" s="3"/>
+      <c r="I100" s="6">
+        <v>0</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6">
+        <v>0</v>
+      </c>
+      <c r="L100" s="6">
+        <v>0</v>
+      </c>
+      <c r="M100" s="7">
+        <v>1</v>
+      </c>
+      <c r="N100" s="6">
+        <v>0</v>
+      </c>
+      <c r="O100" s="6">
+        <v>0</v>
+      </c>
+      <c r="P100" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="6">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3"/>
+    </row>
+    <row r="101" spans="1:19">
+      <c r="A101" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+      <c r="E101" s="3"/>
+      <c r="F101" s="3"/>
+      <c r="I101" s="7">
+        <v>1</v>
+      </c>
+      <c r="J101" s="6">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6">
+        <v>0</v>
+      </c>
+      <c r="L101" s="6">
+        <v>0</v>
+      </c>
+      <c r="M101" s="7">
+        <v>1</v>
+      </c>
+      <c r="N101" s="6">
+        <v>0</v>
+      </c>
+      <c r="O101" s="6">
+        <v>0</v>
+      </c>
+      <c r="P101" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="6">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3"/>
+    </row>
+    <row r="102" spans="1:19">
+      <c r="A102" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+      <c r="E102" s="3"/>
+      <c r="F102" s="3"/>
+      <c r="I102" s="6">
+        <v>0</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6">
+        <v>0</v>
+      </c>
+      <c r="L102" s="6">
+        <v>0</v>
+      </c>
+      <c r="M102" s="7">
+        <v>1</v>
+      </c>
+      <c r="N102" s="6">
+        <v>0</v>
+      </c>
+      <c r="O102" s="7">
+        <v>1</v>
+      </c>
+      <c r="P102" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="6">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3"/>
+    </row>
+    <row r="103" spans="1:19">
+      <c r="A103" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+      <c r="E103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="I103" s="7">
+        <v>1</v>
+      </c>
+      <c r="J103" s="6">
+        <v>0</v>
+      </c>
+      <c r="K103" s="6">
+        <v>0</v>
+      </c>
+      <c r="L103" s="6">
+        <v>0</v>
+      </c>
+      <c r="M103" s="7">
+        <v>1</v>
+      </c>
+      <c r="N103" s="6">
+        <v>0</v>
+      </c>
+      <c r="O103" s="7">
+        <v>1</v>
+      </c>
+      <c r="P103" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="6">
+        <v>0</v>
+      </c>
+      <c r="S103" s="3"/>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="1"/>
+      <c r="C108" s="1"/>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1"/>
+      <c r="F108" s="1"/>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1"/>
+      <c r="C109" s="1"/>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1"/>
+      <c r="F109" s="1"/>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1"/>
+      <c r="C110" s="1"/>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1"/>
+      <c r="F110" s="1"/>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1"/>
+      <c r="C111" s="1"/>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1"/>
+      <c r="F111" s="1"/>
+    </row>
+    <row r="112" spans="1:6">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1"/>
+      <c r="C112" s="1"/>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1"/>
+      <c r="F112" s="1"/>
+    </row>
+    <row r="113" spans="1:6">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1"/>
+      <c r="C113" s="1"/>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1"/>
+      <c r="F113" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="141">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="I1:Q1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A22:F22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A24:F24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="A46:F46"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A48:F48"/>
+    <mergeCell ref="A49:F49"/>
+    <mergeCell ref="A50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="A56:F56"/>
+    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="A58:F58"/>
+    <mergeCell ref="A59:F59"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A63:F63"/>
+    <mergeCell ref="A64:F64"/>
+    <mergeCell ref="A65:F65"/>
+    <mergeCell ref="A66:F66"/>
+    <mergeCell ref="A67:F67"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A69:F69"/>
+    <mergeCell ref="A70:F70"/>
+    <mergeCell ref="A71:F71"/>
+    <mergeCell ref="A72:F72"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A74:F74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="A80:F80"/>
+    <mergeCell ref="A81:F81"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A83:F83"/>
+    <mergeCell ref="A84:F84"/>
+    <mergeCell ref="A85:F85"/>
+    <mergeCell ref="A86:F86"/>
+    <mergeCell ref="A91:F91"/>
+    <mergeCell ref="A92:F92"/>
+    <mergeCell ref="A93:F93"/>
+    <mergeCell ref="A94:F94"/>
+    <mergeCell ref="A95:F95"/>
+    <mergeCell ref="A96:F96"/>
+    <mergeCell ref="A97:F97"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A99:F99"/>
+    <mergeCell ref="A100:F100"/>
+    <mergeCell ref="A101:F101"/>
+    <mergeCell ref="A102:F102"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A108:F108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A110:F110"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A112:F112"/>
+    <mergeCell ref="A113:F113"/>
+    <mergeCell ref="I15:I16"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I55:I56"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="I90:I91"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="J90:J91"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="K90:K91"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="L62:L63"/>
+    <mergeCell ref="L90:L91"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="M62:M63"/>
+    <mergeCell ref="M90:M91"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="N43:N44"/>
+    <mergeCell ref="N55:N56"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="N90:N91"/>
+    <mergeCell ref="O15:O16"/>
+    <mergeCell ref="O43:O44"/>
+    <mergeCell ref="O55:O56"/>
+    <mergeCell ref="O62:O63"/>
+    <mergeCell ref="O90:O91"/>
+    <mergeCell ref="P15:P16"/>
+    <mergeCell ref="P43:P44"/>
+    <mergeCell ref="P55:P56"/>
+    <mergeCell ref="P62:P63"/>
+    <mergeCell ref="P90:P91"/>
+    <mergeCell ref="Q15:Q16"/>
+    <mergeCell ref="Q43:Q44"/>
+    <mergeCell ref="Q55:Q56"/>
+    <mergeCell ref="Q62:Q63"/>
+    <mergeCell ref="Q79:Q80"/>
+    <mergeCell ref="Q90:Q91"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S26:S28"/>
+    <mergeCell ref="S50:S51"/>
+    <mergeCell ref="S70:S75"/>
+    <mergeCell ref="S99:S103"/>
+    <mergeCell ref="O31:Q32"/>
+    <mergeCell ref="N79:P80"/>
+    <mergeCell ref="I13:Q14"/>
+    <mergeCell ref="A13:F14"/>
+    <mergeCell ref="A15:F16"/>
+    <mergeCell ref="T2:Y5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/doc/Core/Total.xlsx
+++ b/doc/Core/Total.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27690" windowHeight="12525" activeTab="3"/>
+    <workbookView windowWidth="27690" windowHeight="12525" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="参数" sheetId="1" r:id="rId1"/>
@@ -149,7 +149,7 @@
     <t>IP</t>
   </si>
   <si>
-    <t xml:space="preserve">1、目前只写了AR，R通道，AW，W，B通道还未写，未验证
+    <t xml:space="preserve">1、目前已编写完毕，未验证
 </t>
   </si>
   <si>
@@ -454,9 +454,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -470,6 +470,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -502,21 +509,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -544,20 +536,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -565,9 +544,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -582,6 +560,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -590,15 +583,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -608,6 +600,14 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -650,7 +650,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -662,61 +806,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -728,109 +830,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -933,11 +933,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -959,26 +976,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -987,142 +987,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1132,7 +1132,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1177,9 +1177,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1574,138 +1571,138 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="22">
+      <c r="B3" s="21">
         <v>4</v>
       </c>
-      <c r="C3" s="22"/>
+      <c r="C3" s="21"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="20">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="20"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="21">
         <v>16</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="21">
+      <c r="B6" s="20">
         <v>64</v>
       </c>
-      <c r="C6" s="21"/>
+      <c r="C6" s="20"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="22">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22"/>
+      <c r="B7" s="21">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="21">
+      <c r="B8" s="20">
         <v>3</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="21"/>
+      <c r="C10" s="20"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="22">
-        <v>1</v>
-      </c>
-      <c r="C11" s="22" t="s">
+      <c r="B11" s="21">
+        <v>1</v>
+      </c>
+      <c r="C11" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="21">
+      <c r="B12" s="20">
         <v>2</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="20" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="22"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="20" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="15" ht="57" customHeight="1" spans="1:3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C15" s="23" t="s">
+      <c r="C15" s="22" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1751,31 +1748,31 @@
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="17" t="s">
+      <c r="E11" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="I11" s="17" t="s">
+      <c r="I11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="J11" s="17" t="s">
+      <c r="J11" s="16" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1794,8 +1791,8 @@
   <sheetPr/>
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
@@ -1825,14 +1822,14 @@
       <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>40</v>
       </c>
       <c r="D2" s="4"/>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="19" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1840,7 +1837,7 @@
       <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
@@ -1852,7 +1849,7 @@
       <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
@@ -2048,10 +2045,10 @@
   <sheetPr/>
   <dimension ref="A1:Y113"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="14" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomLeft" activeCell="A92" sqref="A92:Q103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="15"/>
@@ -2130,14 +2127,14 @@
       <c r="Q2" s="7">
         <v>1</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-      <c r="X2" s="15"/>
-      <c r="Y2" s="15"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
@@ -2177,12 +2174,12 @@
       <c r="Q3" s="6">
         <v>0</v>
       </c>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-      <c r="X3" s="15"/>
-      <c r="Y3" s="15"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
@@ -2222,12 +2219,12 @@
       <c r="Q4" s="6">
         <v>0</v>
       </c>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
@@ -2267,12 +2264,12 @@
       <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="X5" s="15"/>
-      <c r="Y5" s="15"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="1" t="s">
@@ -2569,7 +2566,7 @@
       <c r="O16" s="13"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="13"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="15"/>
     </row>
     <row r="17" spans="1:19">
       <c r="A17" s="1" t="s">
@@ -2609,7 +2606,7 @@
       <c r="Q17" s="7">
         <v>1</v>
       </c>
-      <c r="S17" s="17"/>
+      <c r="S17" s="16"/>
     </row>
     <row r="18" spans="1:19">
       <c r="A18" s="1" t="s">
@@ -2649,7 +2646,7 @@
       <c r="Q18" s="7">
         <v>1</v>
       </c>
-      <c r="S18" s="17"/>
+      <c r="S18" s="16"/>
     </row>
     <row r="19" spans="1:19">
       <c r="A19" s="1" t="s">
@@ -2689,7 +2686,7 @@
       <c r="Q19" s="6">
         <v>0</v>
       </c>
-      <c r="S19" s="17"/>
+      <c r="S19" s="16"/>
     </row>
     <row r="20" spans="1:19">
       <c r="A20" s="1" t="s">
@@ -2729,7 +2726,7 @@
       <c r="Q20" s="7">
         <v>1</v>
       </c>
-      <c r="S20" s="17"/>
+      <c r="S20" s="16"/>
     </row>
     <row r="21" spans="1:22">
       <c r="A21" s="1" t="s">
@@ -2769,7 +2766,7 @@
       <c r="Q21" s="6">
         <v>0</v>
       </c>
-      <c r="S21" s="17"/>
+      <c r="S21" s="16"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
     </row>
@@ -2811,7 +2808,7 @@
       <c r="Q22" s="6">
         <v>0</v>
       </c>
-      <c r="S22" s="17"/>
+      <c r="S22" s="16"/>
     </row>
     <row r="23" spans="1:19">
       <c r="A23" s="1" t="s">
@@ -2851,7 +2848,7 @@
       <c r="Q23" s="6">
         <v>0</v>
       </c>
-      <c r="S23" s="17"/>
+      <c r="S23" s="16"/>
     </row>
     <row r="24" spans="1:19">
       <c r="A24" s="1" t="s">
@@ -2891,7 +2888,7 @@
       <c r="Q24" s="7">
         <v>1</v>
       </c>
-      <c r="S24" s="17"/>
+      <c r="S24" s="16"/>
     </row>
     <row r="25" spans="1:19">
       <c r="A25" s="1" t="s">
@@ -2929,7 +2926,7 @@
       <c r="Q25" s="10">
         <v>1</v>
       </c>
-      <c r="S25" s="17"/>
+      <c r="S25" s="16"/>
     </row>
     <row r="26" spans="1:19">
       <c r="A26" s="3" t="s">
@@ -4230,7 +4227,7 @@
       <c r="Q70" s="6">
         <v>0</v>
       </c>
-      <c r="S70" s="18" t="s">
+      <c r="S70" s="17" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4270,7 +4267,7 @@
       <c r="Q71" s="6">
         <v>0</v>
       </c>
-      <c r="S71" s="18"/>
+      <c r="S71" s="17"/>
     </row>
     <row r="72" spans="1:19">
       <c r="A72" s="3" t="s">
@@ -4308,7 +4305,7 @@
       <c r="Q72" s="6">
         <v>0</v>
       </c>
-      <c r="S72" s="18"/>
+      <c r="S72" s="17"/>
     </row>
     <row r="73" spans="1:19">
       <c r="A73" s="3" t="s">
@@ -4346,7 +4343,7 @@
       <c r="Q73" s="7">
         <v>1</v>
       </c>
-      <c r="S73" s="18"/>
+      <c r="S73" s="17"/>
     </row>
     <row r="74" spans="1:19">
       <c r="A74" s="3" t="s">
@@ -4384,7 +4381,7 @@
       <c r="Q74" s="7">
         <v>1</v>
       </c>
-      <c r="S74" s="18"/>
+      <c r="S74" s="17"/>
     </row>
     <row r="75" spans="1:19">
       <c r="A75" s="3" t="s">
@@ -4422,7 +4419,7 @@
       <c r="Q75" s="7">
         <v>1</v>
       </c>
-      <c r="S75" s="18"/>
+      <c r="S75" s="17"/>
     </row>
     <row r="79" spans="14:17">
       <c r="N79" s="13" t="s">
